--- a/Employee_Reports35/Rogelio Reyes Gomez Jr. Q0301.xlsx
+++ b/Employee_Reports35/Rogelio Reyes Gomez Jr. Q0301.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -633,11 +633,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -780,11 +780,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1123,11 +1123,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1466,11 +1466,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1515,11 +1515,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1564,11 +1564,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1760,11 +1760,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1809,11 +1809,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1858,11 +1858,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1907,11 +1907,11 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -1922,53 +1922,53 @@
       <c r="K30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>11-Mar-2024</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>11-Mar-2025</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>-237</v>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K31" s="5" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>10-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>10-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-021</t>
+          <t>LSME-IMS-SOP-018</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1996,20 +1996,20 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>10-Mar-2025</t>
+          <t>13-Mar-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>10-Mar-2026</t>
+          <t>13-Mar-2026</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2025,40 +2025,28 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>13-Mar-2025</t>
+          <t>25-Mar-2025</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>13-Mar-2026</t>
+          <t>25-Mar-2026</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2074,28 +2062,40 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
+          <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>DFWH</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>LSME-QDF-SOP-003</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>10-May-2025</t>
+          <t>07-May-2025</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>10-May-2026</t>
+          <t>07-May-2026</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2111,40 +2111,28 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>DFWH</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>LSME-QDF-SOP-003</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>07-May-2025</t>
+          <t>10-Jul-2025</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>07-May-2026</t>
+          <t>10-Jul-2027</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2153,43 +2141,6 @@
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>614</v>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Rogelio Reyes Gomez Jr. Q0301.xlsx
+++ b/Employee_Reports35/Rogelio Reyes Gomez Jr. Q0301.xlsx
@@ -584,11 +584,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -633,11 +633,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -780,11 +780,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -878,11 +878,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -927,11 +927,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1123,11 +1123,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1221,11 +1221,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1319,11 +1319,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1417,11 +1417,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1466,11 +1466,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1515,11 +1515,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1564,11 +1564,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1760,11 +1760,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1809,11 +1809,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1858,11 +1858,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1907,11 +1907,11 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -2005,11 +2005,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2042,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2128,11 +2128,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
